--- a/HT36C/Tables/Table 2.xlsx
+++ b/HT36C/Tables/Table 2.xlsx
@@ -76,8 +76,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -147,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -165,10 +169,13 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -177,10 +184,13 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -478,53 +488,53 @@
       <c r="B2" s="7">
         <v>0.04943642</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>0.01865175</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
         <v>12.8</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <v>46.8</v>
       </c>
       <c r="F2" s="9">
         <v>34.2</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>38.7</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="11">
         <v>1669.23421</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="11">
         <v>1673.81847</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="11">
         <v>0.63114033</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="11">
         <v>18.4582208</v>
       </c>
-      <c r="L2" s="8">
-        <v>1228.49873</v>
+      <c r="L2" s="11">
+        <v>1225.13412</v>
       </c>
       <c r="M2" s="11">
         <v>23.6049034</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="11">
         <v>3029.59378</v>
       </c>
       <c r="O2" s="12">
         <v>1340.46645</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="13">
         <v>0.0017967</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="11">
         <v>1067.29361</v>
       </c>
-      <c r="R2" s="11">
-        <v>15.1041028</v>
+      <c r="R2" s="14">
+        <v>14.7888555</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -537,59 +547,59 @@
       <c r="AA2" s="5"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="13">
+      <c r="A3" s="15">
         <v>3.0</v>
       </c>
       <c r="B3" s="7">
         <v>0.04943642</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>0.01848521</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>12.5</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <v>48.3</v>
       </c>
       <c r="F3" s="9">
         <v>31.6</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>41.1</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="11">
         <v>1476.52848</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="11">
         <v>1487.83864</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="11">
         <v>0.5376063</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="11">
         <v>22.1190414</v>
       </c>
-      <c r="L3" s="8">
-        <v>1215.0229</v>
+      <c r="L3" s="11">
+        <v>1205.78661</v>
       </c>
       <c r="M3" s="11">
         <v>25.708289</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="11">
         <v>3029.59378</v>
       </c>
       <c r="O3" s="12">
         <v>1340.46645</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="13">
         <v>0.00239561</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="11">
         <v>1067.29361</v>
       </c>
-      <c r="R3" s="11">
-        <v>13.8414851</v>
+      <c r="R3" s="14">
+        <v>12.9760918</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -602,59 +612,59 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="13">
+      <c r="A4" s="15">
         <v>2.0</v>
       </c>
       <c r="B4" s="7">
         <v>0.04943642</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>0.01815214</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>12.6</v>
       </c>
-      <c r="E4" s="8">
-        <v>48.6</v>
+      <c r="E4" s="9">
+        <v>48.4787598</v>
       </c>
       <c r="F4" s="9">
-        <v>27.7</v>
+        <v>27.015625</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>42.8</v>
       </c>
-      <c r="H4" s="8">
-        <v>1146.27528</v>
+      <c r="H4" s="11">
+        <v>1094.32282</v>
       </c>
-      <c r="I4" s="8">
-        <v>1198.53668</v>
+      <c r="I4" s="11">
+        <v>1173.48308</v>
       </c>
-      <c r="J4" s="10">
-        <v>0.43856791</v>
+      <c r="J4" s="11">
+        <v>0.43085132</v>
       </c>
-      <c r="K4" s="10">
-        <v>25.2653702</v>
+      <c r="K4" s="11">
+        <v>25.583409</v>
       </c>
-      <c r="L4" s="8">
-        <v>1285.32174</v>
+      <c r="L4" s="11">
+        <v>1158.97277</v>
       </c>
       <c r="M4" s="11">
-        <v>33.3706107</v>
+        <v>33.0522483</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <v>3029.59378</v>
       </c>
       <c r="O4" s="12">
         <v>1340.46645</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="13">
         <v>0.00359341</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <v>1067.29361</v>
       </c>
-      <c r="R4" s="11">
-        <v>20.4281303</v>
+      <c r="R4" s="14">
+        <v>8.58987219</v>
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -667,59 +677,59 @@
       <c r="AA4" s="5"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="13">
+      <c r="A5" s="15">
         <v>1.0</v>
       </c>
       <c r="B5" s="7">
         <v>0.04943642</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>0.01865175</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>12.7</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <v>48.4</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>20.8</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>44.8</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="11">
         <v>631.81295</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="11">
         <v>743.91932</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="11">
         <v>0.26714935</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="11">
         <v>29.7933814</v>
       </c>
-      <c r="L5" s="8">
-        <v>1353.07611</v>
+      <c r="L5" s="11">
+        <v>1149.17167</v>
       </c>
       <c r="M5" s="11">
         <v>57.2618499</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <v>3029.59378</v>
       </c>
       <c r="O5" s="12">
         <v>1340.46645</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="13">
         <v>0.00718682</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <v>1067.29361</v>
       </c>
-      <c r="R5" s="11">
-        <v>26.7763712</v>
+      <c r="R5" s="14">
+        <v>7.67155917</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
